--- a/Data Base.xlsx
+++ b/Data Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani Debastiani\Desktop\Automation Price of Cryptocurrencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7559F65-24E1-4433-A10C-F7D4786D8763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D830B-389D-4B0F-A611-BD7E8E34C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39D54203-961A-4B96-9AFC-82EAA0C82A3F}"/>
   </bookViews>
@@ -141,27 +141,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBFD9B-8662-4C1E-A87B-6BE43B88E380}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I5"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,263 +497,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6">
-        <v>348.803</v>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="9">
+        <v>348803</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="7">
+      <c r="P5" s="8">
         <f>D5*M5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
         <v>9</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="7">
-        <f t="shared" ref="P6:P10" si="0">D6*M6</f>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="8">
+        <f t="shared" ref="P6:P9" si="0">D6*M6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6">
-        <v>2.2709999999999999</v>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9">
+        <v>2271</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
         <v>8.4</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7">
         <v>15</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="6">
         <v>9.1934000000000004E-4</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <f>D10*M10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="P11" s="2">
+        <f>SUM(P5:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:O9"/>
@@ -777,13 +791,7 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="P11:R11"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A4:C4"/>
@@ -792,6 +800,13 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:R4"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Data Base.xlsx
+++ b/Data Base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani Debastiani\Desktop\Automation Price of Cryptocurrencies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geovani Debastiani\Desktop\Robo das Criptos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D830B-389D-4B0F-A611-BD7E8E34C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C1571-528A-423E-AB41-D5C10600EF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39D54203-961A-4B96-9AFC-82EAA0C82A3F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Investimento Criptomoedas</t>
   </si>
@@ -52,25 +52,13 @@
     <t>Total Reais</t>
   </si>
   <si>
-    <t>XPR</t>
+    <t>Cripto em Carteira</t>
   </si>
   <si>
-    <t>SHIB</t>
+    <t>Insights das Criptos</t>
   </si>
   <si>
-    <t>USDT</t>
-  </si>
-  <si>
-    <t>BTT</t>
-  </si>
-  <si>
-    <t>GALA</t>
-  </si>
-  <si>
-    <t>BNB</t>
-  </si>
-  <si>
-    <t>Cripto em Carteira</t>
+    <t>Total em Reais:</t>
   </si>
 </sst>
 </file>
@@ -80,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +101,18 @@
       <name val="Corbel Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Corbel Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Corbel Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,12 +141,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -161,11 +167,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,283 +494,2094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BBFD9B-8662-4C1E-A87B-6BE43B88E380}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R800"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="3" width="9.140625" style="2"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="9">
-        <v>348803</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="8">
-        <f>D5*M5</f>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <f>SUM(P9:P50)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7">
-        <v>9</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="8">
-        <f t="shared" ref="P6:P9" si="0">D6*M6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="9">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="12">
+        <v>348803</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="4">
+        <f>D9*M9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4">
+        <f t="shared" ref="P10:P13" si="0">D10*M10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="12">
         <v>2271</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="8">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <v>8.4</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
         <v>15</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="6">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="8">
         <v>9.1934000000000004E-4</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="8">
-        <f>D10*M10</f>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="4">
+        <f>D14*M14</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="P11" s="2">
-        <f>SUM(P5:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+    </row>
+    <row r="65" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="273" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="274" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="275" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="276" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="277" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="278" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="279" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="280" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="281" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="282" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="283" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="284" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="285" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="286" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="287" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="288" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="289" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="290" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="291" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="292" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="293" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="294" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="295" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="296" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="297" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="298" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="299" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="300" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="301" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="302" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="303" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="304" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="305" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="306" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="307" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="308" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="309" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="310" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="311" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="312" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="313" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="314" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="315" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="316" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="317" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="318" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="319" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="320" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="321" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="322" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="323" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="324" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="325" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="326" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="327" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="328" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="329" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="330" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="331" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="332" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="333" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="334" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="335" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="336" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="337" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="338" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="339" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="340" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="341" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="342" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="343" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="344" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="345" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="346" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="347" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="348" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="349" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="350" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="351" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="352" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="353" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="354" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="355" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="356" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="357" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="358" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="359" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="360" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="361" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="362" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="363" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="364" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="365" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="366" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="367" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="368" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="369" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="370" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="371" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="372" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="373" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="374" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="375" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="376" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="377" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="378" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="379" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="380" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="381" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="382" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="383" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="384" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="385" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="386" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="387" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="388" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="389" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="390" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="391" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="392" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="393" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="394" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="395" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="396" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="397" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="398" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="399" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="400" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="401" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="402" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="403" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="404" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="405" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="406" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="407" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="408" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="409" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="410" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="411" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="412" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="413" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="414" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="415" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="416" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="417" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="418" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="419" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="420" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="421" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="422" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="423" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="424" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="425" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="426" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="427" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="428" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="429" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="430" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="431" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="432" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="433" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="434" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="435" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="436" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="437" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="438" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="439" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="440" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="441" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="442" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="443" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="444" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="445" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="446" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="447" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="448" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="449" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="450" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="451" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="452" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="453" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="454" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="455" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="456" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="457" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="458" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="459" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="460" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="461" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="462" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="463" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="464" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="465" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="466" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="467" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="468" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="469" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="470" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="471" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="472" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="473" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="474" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="475" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="476" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="477" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="478" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="479" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="480" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="481" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="482" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="483" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="484" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="485" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="486" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="487" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="488" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="489" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="490" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="491" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="492" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="493" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="494" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="495" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="496" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="497" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="498" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="499" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="500" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="501" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="502" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="503" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="504" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="505" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="506" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="507" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="508" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="509" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="510" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="511" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="512" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="513" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="514" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="515" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="516" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="517" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="518" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="519" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="520" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="521" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="522" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="523" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="524" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="525" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="526" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="527" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="528" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="529" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="530" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="531" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="532" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="533" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="534" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="535" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="536" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="537" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="538" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="539" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="540" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="541" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="542" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="543" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="544" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="545" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="546" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="547" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="548" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="549" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="550" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="551" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="552" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="553" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="554" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="555" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="556" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="557" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="558" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="559" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="560" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="561" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="562" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="563" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="564" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="565" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="566" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="567" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="568" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="569" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="570" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="571" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="572" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="573" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="574" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="575" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="576" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="577" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="578" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="579" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="580" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="581" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="582" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="583" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="584" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="585" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="586" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="587" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="588" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="589" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="590" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="591" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="592" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="593" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="594" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="595" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="596" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="597" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="598" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="599" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="600" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="601" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="602" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="603" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="604" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="605" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="606" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="607" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="608" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="609" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="610" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="611" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="612" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="613" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="614" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="615" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="616" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="617" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="618" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="619" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="620" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="621" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="622" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="623" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="624" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="625" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="626" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="627" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="628" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="629" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="630" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="631" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="632" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="633" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="634" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="635" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="636" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="637" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="638" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="639" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="640" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="641" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="642" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="643" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="644" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="645" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="646" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="647" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="648" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="649" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="650" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="651" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="652" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="653" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="654" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="655" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="656" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="657" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="658" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="659" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="660" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="661" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="662" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="663" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="664" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="665" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="666" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="667" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="668" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="669" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="670" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="671" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="672" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="673" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="674" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="675" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="676" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="677" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="678" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="679" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="680" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="681" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="682" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="683" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="684" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="685" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="686" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="687" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="688" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="689" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="690" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="691" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="692" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="693" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="694" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="695" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="696" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="697" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="698" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="699" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="700" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="701" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="702" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="703" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="704" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="705" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="706" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="707" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="708" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="709" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="710" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="711" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="712" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="713" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="714" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="715" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="716" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="717" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="718" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="719" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="720" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="721" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="722" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="723" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="724" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="725" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="726" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="727" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="728" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="729" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="730" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="731" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="732" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="733" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="734" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="735" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="736" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="737" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="738" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="739" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="740" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="741" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="742" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="743" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="744" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="745" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="746" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="747" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="748" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="749" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="750" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="751" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="752" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="753" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="754" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="755" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="756" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="757" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="758" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="759" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="760" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="761" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="762" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="763" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="764" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="765" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="766" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="767" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="768" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="769" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="770" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="771" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="772" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="773" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="774" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="775" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="776" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="777" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="778" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="779" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="780" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="781" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="782" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="783" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="784" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="785" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="786" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="787" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="788" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="789" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="790" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="791" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="792" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="793" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="794" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="795" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="796" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="797" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="798" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="799" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="800" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="265">
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:O9"/>
@@ -770,43 +2590,46 @@
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="P10:R10"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:R8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
